--- a/Results/Research Question 2/Rsearch question 2.xlsx
+++ b/Results/Research Question 2/Rsearch question 2.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Selab\main\김예진\USH\Results\Research Question 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612B2A33-C606-4A43-BFE0-2DA342531813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="4584" windowWidth="24708" windowHeight="14004" xr2:uid="{F7F203A3-3EF5-4CBB-BA84-80122CFA5279}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13428"/>
   </bookViews>
   <sheets>
-    <sheet name="JPetStore2" sheetId="1" r:id="rId1"/>
+    <sheet name="JPetStore" sheetId="1" r:id="rId1"/>
     <sheet name="JPetStore6" sheetId="2" r:id="rId2"/>
     <sheet name="PetClinic" sheetId="3" r:id="rId3"/>
     <sheet name="ShoppingApp" sheetId="4" r:id="rId4"/>
     <sheet name="DayTrader" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1153,19 +1152,20 @@
     <t>rtCharacterisitics(html)</t>
   </si>
   <si>
-    <t>Study [2]</t>
-  </si>
-  <si>
     <t>Our Approach</t>
   </si>
   <si>
     <t>M2M</t>
+  </si>
+  <si>
+    <t>UseCaseExec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,11 +1560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07587FF0-F8F9-43B3-8454-091C06102701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1572,7 +1572,9 @@
     <col min="1" max="1" width="33" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.796875" style="3"/>
-    <col min="5" max="7" width="6.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.8984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1592,10 +1594,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3415,11 +3417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2DE00A-81A4-43ED-A9B7-B62A169E634A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3446,10 +3448,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -4756,11 +4758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB8A135-A4C5-45D9-86F1-A0C04A52BD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4785,10 +4787,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -5683,11 +5685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2EA05E-1BD9-4DA7-B308-FC8C8BBFF439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5712,10 +5714,10 @@
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -6618,11 +6620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834DF337-D90D-478C-85F3-32FD41ACBB46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="W158" sqref="W158"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6645,13 +6647,13 @@
         <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">

--- a/Results/Research Question 2/Rsearch question 2.xlsx
+++ b/Results/Research Question 2/Rsearch question 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIWON\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D36B6EA-075B-4A26-A8FC-1801B0102202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A1A49-2C22-45B2-B7AF-7662F312717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18756" yWindow="2556" windowWidth="30720" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JPetStore" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="357">
   <si>
     <t>Components</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,9 +1105,6 @@
     <t>Mono2Micro</t>
   </si>
   <si>
-    <t>JICCE</t>
-  </si>
-  <si>
     <t>accountejb(table)</t>
   </si>
   <si>
@@ -1130,6 +1127,16 @@
   </si>
   <si>
     <t>SignoffController</t>
+  </si>
+  <si>
+    <t>UseCaseExec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JICCE`25</t>
+  </si>
+  <si>
+    <t>DeDV.SAC</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1540,11 +1547,11 @@
     <col min="2" max="2" width="13.09765625" style="2" customWidth="1"/>
     <col min="3" max="4" width="8.796875" style="2"/>
     <col min="5" max="5" width="6.8984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.8984375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="14.69921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,13 +1568,19 @@
         <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1589,8 +1602,14 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1603,8 +1622,14 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1626,8 +1651,14 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1649,8 +1680,14 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1663,8 +1700,14 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1677,8 +1720,14 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1691,8 +1740,14 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +1757,14 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1716,8 +1777,14 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1736,8 +1803,14 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1759,8 +1832,14 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1782,8 +1861,14 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1802,8 +1887,14 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1819,8 +1910,14 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1836,8 +1933,14 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1853,8 +1956,14 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1873,8 +1982,14 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1896,8 +2011,14 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1916,8 +2037,14 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1939,8 +2066,14 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1953,8 +2086,14 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1967,8 +2106,14 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1981,8 +2126,14 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2146,14 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2013,10 +2170,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2036,10 +2199,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2056,10 +2225,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2079,10 +2254,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2102,10 +2283,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2125,10 +2312,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -2148,10 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2171,10 +2370,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -2194,12 +2399,18 @@
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -2217,10 +2428,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2231,10 +2448,16 @@
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2245,10 +2468,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2259,10 +2488,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2273,10 +2508,16 @@
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2287,10 +2528,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2301,10 +2548,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2312,10 +2565,16 @@
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2325,8 +2584,14 @@
       <c r="G43" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="2">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2348,8 +2613,14 @@
       <c r="G44" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2371,8 +2642,14 @@
       <c r="G45" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2394,8 +2671,14 @@
       <c r="G46" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="2">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2417,8 +2700,14 @@
       <c r="G47" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2440,8 +2729,14 @@
       <c r="G48" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2758,14 @@
       <c r="G49" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2477,8 +2778,14 @@
       <c r="G50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2489,10 +2796,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2509,10 +2822,16 @@
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2531,8 +2850,14 @@
       <c r="G53" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2554,8 +2879,14 @@
       <c r="G54" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2575,10 +2906,16 @@
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2597,8 +2934,14 @@
       <c r="G56" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2618,10 +2961,16 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2643,8 +2992,14 @@
       <c r="G58" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" s="2">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -2666,8 +3021,14 @@
       <c r="G59" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59" s="2">
+        <v>3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -2687,10 +3048,16 @@
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2712,8 +3079,14 @@
       <c r="G61" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" s="2">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -2724,10 +3097,16 @@
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2740,8 +3119,14 @@
       <c r="G63" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" s="2">
+        <v>3</v>
+      </c>
+      <c r="I63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2752,10 +3137,16 @@
         <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3</v>
+      </c>
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -2768,8 +3159,14 @@
       <c r="G65" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65" s="2">
+        <v>3</v>
+      </c>
+      <c r="I65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2782,8 +3179,14 @@
       <c r="G66" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66" s="2">
+        <v>3</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2800,10 +3203,16 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2814,10 +3223,16 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2828,10 +3243,16 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>3</v>
+      </c>
+      <c r="I69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2842,10 +3263,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2853,10 +3280,16 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2876,10 +3309,16 @@
         <v>2</v>
       </c>
       <c r="G72" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>3</v>
+      </c>
+      <c r="I72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2899,10 +3338,16 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3</v>
+      </c>
+      <c r="I73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>175</v>
       </c>
@@ -2913,10 +3358,16 @@
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>3</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -2930,10 +3381,16 @@
         <v>3</v>
       </c>
       <c r="G75" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -2950,10 +3407,16 @@
         <v>3</v>
       </c>
       <c r="G76" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2</v>
+      </c>
+      <c r="I76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -2964,10 +3427,16 @@
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2975,10 +3444,16 @@
         <v>-1</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>3</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -2986,10 +3461,16 @@
         <v>-1</v>
       </c>
       <c r="G79" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -2997,10 +3478,16 @@
         <v>-1</v>
       </c>
       <c r="G80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -3008,10 +3495,16 @@
         <v>-1</v>
       </c>
       <c r="G81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -3019,10 +3512,16 @@
         <v>-1</v>
       </c>
       <c r="G82" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>3</v>
+      </c>
+      <c r="I82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -3030,10 +3529,16 @@
         <v>-1</v>
       </c>
       <c r="G83" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>3</v>
+      </c>
+      <c r="I83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -3044,10 +3549,16 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -3058,10 +3569,16 @@
         <v>2</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B86" s="2" t="s">
         <v>84</v>
       </c>
@@ -3082,6 +3599,14 @@
         <v>0.82352941176470584</v>
       </c>
       <c r="G86" s="2">
+        <f t="array" ref="G86">(SUM(IF((G$2:G$74&lt;&gt;"") * ($B$2:$B$74 = G$2:G$74), 1, 0)) + SUM(IF((G$75:G$85&lt;&gt;"") * ($B$75:$B$85 = -1), 1, 0))) / COUNTA(G$2:G$85)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="array" ref="H86">(SUM(IF((H$2:H$74&lt;&gt;"") * ($B$2:$B$74 = H$2:H$74), 1, 0)) + SUM(IF((H$75:H$85&lt;&gt;"") * ($B$75:$B$85 = -1), 1, 0))) / COUNTA(H$2:H$85)</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="I86" s="2">
         <v>0.95238095238095233</v>
       </c>
     </row>
@@ -3094,20 +3619,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" style="2" customWidth="1"/>
-    <col min="3" max="7" width="8.796875" style="2"/>
+    <col min="3" max="9" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3124,13 +3649,19 @@
         <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3143,8 +3674,14 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3164,10 +3701,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3178,10 +3721,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3198,10 +3747,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3214,8 +3769,14 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3228,8 +3789,14 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3246,10 +3813,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3268,8 +3841,14 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3285,8 +3864,14 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3299,8 +3884,14 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3320,10 +3911,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3336,8 +3933,14 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3357,10 +3960,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3371,10 +3980,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3388,10 +4003,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3399,10 +4020,16 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3415,8 +4042,14 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3435,8 +4068,14 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3449,8 +4088,14 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -3472,8 +4117,14 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -3492,8 +4143,14 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -3515,8 +4172,14 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3529,8 +4192,14 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3543,8 +4212,14 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3554,8 +4229,14 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -3568,8 +4249,14 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3582,8 +4269,14 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3596,8 +4289,14 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3610,8 +4309,14 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3621,8 +4326,14 @@
       <c r="G31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3644,8 +4355,14 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -3658,8 +4375,14 @@
       <c r="G33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -3681,8 +4404,14 @@
       <c r="G34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3704,8 +4433,14 @@
       <c r="G35" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3713,10 +4448,16 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -3738,8 +4479,14 @@
       <c r="G37" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -3761,8 +4508,14 @@
       <c r="G38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3784,8 +4537,14 @@
       <c r="G39" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3798,8 +4557,14 @@
       <c r="G40" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3812,8 +4577,14 @@
       <c r="G41" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -3829,8 +4600,14 @@
       <c r="G42" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="2">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3843,8 +4620,14 @@
       <c r="G43" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3863,8 +4646,14 @@
       <c r="G44" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4666,14 @@
       <c r="G45" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -3891,8 +4686,14 @@
       <c r="G46" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -3911,8 +4712,14 @@
       <c r="G47" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3934,8 +4741,14 @@
       <c r="G48" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3948,8 +4761,14 @@
       <c r="G49" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3962,8 +4781,14 @@
       <c r="G50" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3979,8 +4804,14 @@
       <c r="G51" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="2">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3993,8 +4824,14 @@
       <c r="G52" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -4004,8 +4841,14 @@
       <c r="G53" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -4016,10 +4859,16 @@
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -4036,10 +4885,16 @@
         <v>2</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -4047,10 +4902,16 @@
         <v>-1</v>
       </c>
       <c r="G56" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -4058,10 +4919,16 @@
         <v>-1</v>
       </c>
       <c r="G57" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -4069,10 +4936,16 @@
         <v>-1</v>
       </c>
       <c r="G58" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -4080,10 +4953,16 @@
         <v>-1</v>
       </c>
       <c r="G59" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -4091,10 +4970,16 @@
         <v>-1</v>
       </c>
       <c r="G60" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
@@ -4115,6 +5000,14 @@
         <v>0.91836734693877553</v>
       </c>
       <c r="G61" s="2">
+        <f t="array" ref="G61">(SUM(IF((G$2:G$54&lt;&gt;"") * ($B$2:$B$54 = G$2:G$54), 1, 0)) + SUM(IF((G$55:G$60&lt;&gt;"") * ($B$55:$B$60 = -1), 1, 0))) / COUNTA(G$2:G$60)</f>
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="array" ref="H61">(SUM(IF((H$2:H$54&lt;&gt;"") * ($B$2:$B$54 = H$2:H$54), 1, 0)) + SUM(IF((H$55:H$60&lt;&gt;"") * ($B$55:$B$60 = -1), 1, 0))) / COUNTA(H$2:H$60)</f>
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="I61" s="2">
         <v>0.93220338983050843</v>
       </c>
     </row>
@@ -4127,10 +5020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4138,10 +5031,11 @@
     <col min="1" max="1" width="30.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="2"/>
     <col min="3" max="6" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4158,13 +5052,19 @@
         <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -4183,8 +5083,14 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -4197,8 +5103,14 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -4217,8 +5129,14 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
@@ -4231,8 +5149,14 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -4245,8 +5169,14 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
@@ -4265,8 +5195,14 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
@@ -4288,8 +5224,14 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
@@ -4302,8 +5244,14 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
@@ -4325,8 +5273,14 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -4339,8 +5293,14 @@
       <c r="G11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
@@ -4362,8 +5322,14 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
@@ -4382,8 +5348,14 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
@@ -4405,8 +5377,14 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
@@ -4419,8 +5397,14 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
@@ -4433,8 +5417,14 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
@@ -4456,8 +5446,14 @@
       <c r="G17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
@@ -4479,8 +5475,14 @@
       <c r="G18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
@@ -4493,8 +5495,14 @@
       <c r="G19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
@@ -4507,8 +5515,14 @@
       <c r="G20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
@@ -4521,8 +5535,14 @@
       <c r="G21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
@@ -4541,8 +5561,14 @@
       <c r="G22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
@@ -4555,8 +5581,14 @@
       <c r="G23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
@@ -4576,10 +5608,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -4592,8 +5630,14 @@
       <c r="G25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
@@ -4612,8 +5656,14 @@
       <c r="G26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
@@ -4635,8 +5685,14 @@
       <c r="G27" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
@@ -4649,8 +5705,14 @@
       <c r="G28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
@@ -4669,8 +5731,14 @@
       <c r="G29" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
@@ -4683,8 +5751,14 @@
       <c r="G30" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -4706,10 +5780,16 @@
       <c r="G31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -4729,8 +5809,14 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>131</v>
       </c>
@@ -4743,8 +5829,14 @@
       <c r="G33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>132</v>
       </c>
@@ -4761,10 +5853,16 @@
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
@@ -4781,10 +5879,16 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
@@ -4801,10 +5905,16 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>135</v>
       </c>
@@ -4815,10 +5925,16 @@
         <v>2</v>
       </c>
       <c r="G37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>136</v>
       </c>
@@ -4829,10 +5945,16 @@
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>137</v>
       </c>
@@ -4843,10 +5965,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
@@ -4854,10 +5982,16 @@
         <v>-1</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>139</v>
       </c>
@@ -4865,10 +5999,16 @@
         <v>-1</v>
       </c>
       <c r="G41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -4876,10 +6016,16 @@
         <v>-1</v>
       </c>
       <c r="G42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
@@ -4887,10 +6033,16 @@
         <v>-1</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -4898,10 +6050,16 @@
         <v>-1</v>
       </c>
       <c r="G44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>143</v>
       </c>
@@ -4912,10 +6070,16 @@
         <v>2</v>
       </c>
       <c r="G45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
@@ -4935,8 +6099,16 @@
         <f t="array" ref="F46">(SUM(IF((F$2:F$33&lt;&gt;"") * ($B$2:$B$33 = F$2:F$33), 1, 0)) + SUM(IF((F$34:F$45&lt;&gt;"") * ($B$34:$B$45 = -1), 1, 0))) / COUNTA(F$2:F$45)</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="G46" s="2" cm="1">
-        <f t="array" ref="G46">(SUM(IF((G$2:G$33&lt;&gt;"") * ($B$2:$B$33 = G$2:G$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+      <c r="G46" s="2">
+        <f t="array" ref="G46">(SUM(IF((G$2:G$33&lt;&gt;"") * ($B$2:$B$33 = G$2:G$33), 1, 0)) + SUM(IF((G$34:G$45&lt;&gt;"") * ($B$34:$B$45 = -1), 1, 0))) / COUNTA(G$2:G$45)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="array" ref="H46">(SUM(IF((H$2:H$33&lt;&gt;"") * ($B$2:$B$33 = H$2:H$33), 1, 0)) + SUM(IF((H$34:H$45&lt;&gt;"") * ($B$34:$B$45 = -1), 1, 0))) / COUNTA(H$2:H$45)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I46" s="2" cm="1">
+        <f t="array" ref="I46">(SUM(IF((I$2:I$33&lt;&gt;"") * ($B$2:$B$33 = I$2:I$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
         <v>0.97727272727272729</v>
       </c>
     </row>
@@ -4949,19 +6121,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.69921875" style="2" customWidth="1"/>
-    <col min="2" max="7" width="8.796875" style="2"/>
+    <col min="2" max="9" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4978,13 +6150,19 @@
         <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
@@ -5004,10 +6182,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
@@ -5020,8 +6204,14 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
@@ -5043,8 +6233,14 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>147</v>
       </c>
@@ -5055,10 +6251,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
@@ -5071,8 +6273,14 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
@@ -5094,8 +6302,14 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
@@ -5117,8 +6331,14 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>151</v>
       </c>
@@ -5138,10 +6358,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
@@ -5163,8 +6389,14 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
@@ -5184,10 +6416,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>154</v>
       </c>
@@ -5198,10 +6436,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
@@ -5221,10 +6465,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>156</v>
       </c>
@@ -5237,8 +6487,14 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
@@ -5258,10 +6514,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>158</v>
       </c>
@@ -5278,10 +6540,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -5292,10 +6560,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -5308,8 +6582,14 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -5320,10 +6600,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>162</v>
       </c>
@@ -5334,10 +6620,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>163</v>
       </c>
@@ -5348,10 +6640,16 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>164</v>
       </c>
@@ -5368,10 +6666,16 @@
         <v>2</v>
       </c>
       <c r="G22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -5388,10 +6692,16 @@
         <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -5404,8 +6714,14 @@
       <c r="G24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -5418,8 +6734,14 @@
       <c r="G25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>166</v>
       </c>
@@ -5439,10 +6761,16 @@
         <v>3</v>
       </c>
       <c r="G26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>167</v>
       </c>
@@ -5458,8 +6786,14 @@
       <c r="G27" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>168</v>
       </c>
@@ -5481,8 +6815,14 @@
       <c r="G28" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>169</v>
       </c>
@@ -5495,8 +6835,14 @@
       <c r="G29" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>170</v>
       </c>
@@ -5518,8 +6864,14 @@
       <c r="G30" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>171</v>
       </c>
@@ -5532,8 +6884,14 @@
       <c r="G31" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -5555,8 +6913,14 @@
       <c r="G32" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -5578,8 +6942,14 @@
       <c r="G33" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>172</v>
       </c>
@@ -5592,8 +6962,14 @@
       <c r="G34" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="2">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -5606,8 +6982,14 @@
       <c r="G35" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>173</v>
       </c>
@@ -5620,8 +7002,14 @@
       <c r="G36" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>174</v>
       </c>
@@ -5632,10 +7020,16 @@
         <v>3</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>175</v>
       </c>
@@ -5648,8 +7042,14 @@
       <c r="G38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>176</v>
       </c>
@@ -5666,10 +7066,16 @@
         <v>3</v>
       </c>
       <c r="G39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>177</v>
       </c>
@@ -5680,10 +7086,16 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
@@ -5703,8 +7115,16 @@
         <f t="array" ref="F41">(SUM(IF((F$2:F$38&lt;&gt;"") * ($B$2:$B$38 = F$2:F$38), 1, 0)) + SUM(IF((F$39:F$40&lt;&gt;"") * ($B$39:$B$40 = -1), 1, 0))) / COUNTA(F$2:F$40)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G41" s="2" cm="1">
-        <f t="array" ref="G41">(SUM(IF((G$2:G$38&lt;&gt;"") * ($B$2:$B$38 = G$2:G$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+      <c r="G41" s="2">
+        <f t="array" ref="G41">(SUM(IF((G$2:G$38&lt;&gt;"") * ($B$2:$B$38 = G$2:G$38), 1, 0)) + SUM(IF((G$39:G$40&lt;&gt;"") * ($B$39:$B$40 = -1), 1, 0))) / COUNTA(G$2:G$40)</f>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="array" ref="H41">(SUM(IF((H$2:H$38&lt;&gt;"") * ($B$2:$B$38 = H$2:H$38), 1, 0)) + SUM(IF((H$39:H$40&lt;&gt;"") * ($B$39:$B$40 = -1), 1, 0))) / COUNTA(H$2:H$40)</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="I41" s="2" cm="1">
+        <f t="array" ref="I41">(SUM(IF((I$2:I$38&lt;&gt;"") * ($B$2:$B$38 = I$2:I$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
         <v>1</v>
       </c>
     </row>
@@ -5717,10 +7137,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5730,10 +7150,11 @@
     <col min="3" max="4" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5750,13 +7171,19 @@
         <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>178</v>
       </c>
@@ -5775,8 +7202,14 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>179</v>
       </c>
@@ -5793,10 +7226,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -5816,10 +7255,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>181</v>
       </c>
@@ -5829,8 +7274,14 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>182</v>
       </c>
@@ -5852,8 +7303,14 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>183</v>
       </c>
@@ -5870,10 +7327,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>184</v>
       </c>
@@ -5893,10 +7356,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>185</v>
       </c>
@@ -5916,10 +7385,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>186</v>
       </c>
@@ -5929,8 +7404,14 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>187</v>
       </c>
@@ -5947,10 +7428,16 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>188</v>
       </c>
@@ -5961,10 +7448,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>189</v>
       </c>
@@ -5986,8 +7479,14 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>190</v>
       </c>
@@ -6009,8 +7508,14 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>191</v>
       </c>
@@ -6032,8 +7537,14 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>192</v>
       </c>
@@ -6043,8 +7554,14 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>193</v>
       </c>
@@ -6066,8 +7583,14 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>194</v>
       </c>
@@ -6080,8 +7603,14 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>195</v>
       </c>
@@ -6094,8 +7623,14 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>196</v>
       </c>
@@ -6117,8 +7652,14 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -6140,8 +7681,14 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>198</v>
       </c>
@@ -6154,8 +7701,14 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -6177,8 +7730,14 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>200</v>
       </c>
@@ -6200,8 +7759,14 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>201</v>
       </c>
@@ -6217,8 +7782,14 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>202</v>
       </c>
@@ -6240,8 +7811,14 @@
       <c r="G26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>203</v>
       </c>
@@ -6263,8 +7840,14 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>204</v>
       </c>
@@ -6286,8 +7869,14 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>205</v>
       </c>
@@ -6307,10 +7896,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>206</v>
       </c>
@@ -6321,10 +7916,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -6346,8 +7947,14 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>208</v>
       </c>
@@ -6369,8 +7976,14 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>209</v>
       </c>
@@ -6390,10 +8003,16 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>210</v>
       </c>
@@ -6410,10 +8029,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>211</v>
       </c>
@@ -6430,10 +8055,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>212</v>
       </c>
@@ -6452,8 +8083,14 @@
       <c r="G36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>213</v>
       </c>
@@ -6475,8 +8112,14 @@
       <c r="G37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>214</v>
       </c>
@@ -6498,8 +8141,14 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>215</v>
       </c>
@@ -6521,8 +8170,14 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>216</v>
       </c>
@@ -6544,8 +8199,14 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>217</v>
       </c>
@@ -6567,8 +8228,14 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>218</v>
       </c>
@@ -6584,8 +8251,14 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>219</v>
       </c>
@@ -6607,8 +8280,14 @@
       <c r="G43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>220</v>
       </c>
@@ -6624,8 +8303,14 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>221</v>
       </c>
@@ -6641,8 +8326,14 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>222</v>
       </c>
@@ -6658,8 +8349,14 @@
       <c r="G46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>223</v>
       </c>
@@ -6679,10 +8376,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>224</v>
       </c>
@@ -6702,10 +8405,16 @@
         <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>225</v>
       </c>
@@ -6725,10 +8434,16 @@
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>226</v>
       </c>
@@ -6744,8 +8459,14 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>227</v>
       </c>
@@ -6761,8 +8482,14 @@
       <c r="G51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>228</v>
       </c>
@@ -6784,8 +8511,14 @@
       <c r="G52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>229</v>
       </c>
@@ -6807,8 +8540,14 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>230</v>
       </c>
@@ -6830,8 +8569,14 @@
       <c r="G54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>231</v>
       </c>
@@ -6851,10 +8596,16 @@
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>232</v>
       </c>
@@ -6871,10 +8622,16 @@
         <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>233</v>
       </c>
@@ -6890,8 +8647,14 @@
       <c r="G57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>234</v>
       </c>
@@ -6913,8 +8676,14 @@
       <c r="G58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>235</v>
       </c>
@@ -6924,8 +8693,14 @@
       <c r="G59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>236</v>
       </c>
@@ -6947,8 +8722,14 @@
       <c r="G60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>237</v>
       </c>
@@ -6958,8 +8739,14 @@
       <c r="G61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>238</v>
       </c>
@@ -6981,8 +8768,14 @@
       <c r="G62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>239</v>
       </c>
@@ -6992,8 +8785,14 @@
       <c r="G63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>240</v>
       </c>
@@ -7015,8 +8814,14 @@
       <c r="G64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -7026,8 +8831,14 @@
       <c r="G65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>242</v>
       </c>
@@ -7043,8 +8854,14 @@
       <c r="G66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>243</v>
       </c>
@@ -7054,8 +8871,14 @@
       <c r="G67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>244</v>
       </c>
@@ -7065,8 +8888,14 @@
       <c r="G68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>245</v>
       </c>
@@ -7077,10 +8906,16 @@
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -7088,10 +8923,16 @@
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>247</v>
       </c>
@@ -7111,10 +8952,16 @@
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>248</v>
       </c>
@@ -7128,12 +8975,18 @@
         <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -7142,10 +8995,16 @@
         <v>4</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>249</v>
       </c>
@@ -7156,10 +9015,16 @@
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>250</v>
       </c>
@@ -7176,12 +9041,18 @@
         <v>1</v>
       </c>
       <c r="G75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -7190,10 +9061,16 @@
         <v>4</v>
       </c>
       <c r="G76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>251</v>
       </c>
@@ -7204,10 +9081,16 @@
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>159</v>
       </c>
@@ -7218,10 +9101,16 @@
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>252</v>
       </c>
@@ -7232,10 +9121,16 @@
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>253</v>
       </c>
@@ -7243,10 +9138,16 @@
         <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>254</v>
       </c>
@@ -7268,8 +9169,14 @@
       <c r="G81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>255</v>
       </c>
@@ -7277,10 +9184,16 @@
         <v>1</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
@@ -7291,10 +9204,16 @@
         <v>1</v>
       </c>
       <c r="G83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>257</v>
       </c>
@@ -7305,10 +9224,16 @@
         <v>1</v>
       </c>
       <c r="G84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>258</v>
       </c>
@@ -7319,10 +9244,16 @@
         <v>2</v>
       </c>
       <c r="G85" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>259</v>
       </c>
@@ -7330,10 +9261,16 @@
         <v>2</v>
       </c>
       <c r="G86" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2</v>
+      </c>
+      <c r="I86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>260</v>
       </c>
@@ -7347,10 +9284,16 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2</v>
+      </c>
+      <c r="I87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>261</v>
       </c>
@@ -7370,10 +9313,16 @@
         <v>2</v>
       </c>
       <c r="G88" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>262</v>
       </c>
@@ -7390,10 +9339,16 @@
         <v>2</v>
       </c>
       <c r="G89" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>263</v>
       </c>
@@ -7407,12 +9362,18 @@
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
@@ -7421,10 +9382,16 @@
         <v>4</v>
       </c>
       <c r="G91" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>264</v>
       </c>
@@ -7437,8 +9404,14 @@
       <c r="G92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H92" s="2">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>265</v>
       </c>
@@ -7458,10 +9431,16 @@
         <v>3</v>
       </c>
       <c r="G93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>2</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>266</v>
       </c>
@@ -7472,10 +9451,16 @@
         <v>2</v>
       </c>
       <c r="G94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>2</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>267</v>
       </c>
@@ -7483,10 +9468,16 @@
         <v>2</v>
       </c>
       <c r="G95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>2</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>268</v>
       </c>
@@ -7497,10 +9488,16 @@
         <v>2</v>
       </c>
       <c r="G96" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>269</v>
       </c>
@@ -7514,10 +9511,16 @@
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>2</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>270</v>
       </c>
@@ -7531,10 +9534,16 @@
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>3</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>271</v>
       </c>
@@ -7554,12 +9563,18 @@
         <v>2</v>
       </c>
       <c r="G99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>3</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B100" s="2">
         <v>2</v>
@@ -7568,10 +9583,16 @@
         <v>4</v>
       </c>
       <c r="G100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>272</v>
       </c>
@@ -7593,8 +9614,14 @@
       <c r="G101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H101" s="2">
+        <v>2</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>273</v>
       </c>
@@ -7605,10 +9632,16 @@
         <v>3</v>
       </c>
       <c r="G102" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H102" s="2">
+        <v>3</v>
+      </c>
+      <c r="I102" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>274</v>
       </c>
@@ -7630,8 +9663,14 @@
       <c r="G103" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H103" s="2">
+        <v>3</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>275</v>
       </c>
@@ -7642,10 +9681,16 @@
         <v>3</v>
       </c>
       <c r="G104" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H104" s="2">
+        <v>3</v>
+      </c>
+      <c r="I104" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>276</v>
       </c>
@@ -7656,10 +9701,16 @@
         <v>3</v>
       </c>
       <c r="G105" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H105" s="2">
+        <v>3</v>
+      </c>
+      <c r="I105" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>277</v>
       </c>
@@ -7667,10 +9718,16 @@
         <v>3</v>
       </c>
       <c r="G106" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>3</v>
+      </c>
+      <c r="I106" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>278</v>
       </c>
@@ -7692,8 +9749,14 @@
       <c r="G107" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107" s="2">
+        <v>3</v>
+      </c>
+      <c r="I107" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>279</v>
       </c>
@@ -7709,8 +9772,14 @@
       <c r="G108" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108" s="2">
+        <v>3</v>
+      </c>
+      <c r="I108" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>280</v>
       </c>
@@ -7732,8 +9801,14 @@
       <c r="G109" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109" s="2">
+        <v>3</v>
+      </c>
+      <c r="I109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>281</v>
       </c>
@@ -7752,8 +9827,14 @@
       <c r="G110" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110" s="2">
+        <v>3</v>
+      </c>
+      <c r="I110" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>282</v>
       </c>
@@ -7764,10 +9845,16 @@
         <v>3</v>
       </c>
       <c r="G111" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="2">
+        <v>3</v>
+      </c>
+      <c r="I111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>283</v>
       </c>
@@ -7775,10 +9862,16 @@
         <v>3</v>
       </c>
       <c r="G112" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>3</v>
+      </c>
+      <c r="I112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>284</v>
       </c>
@@ -7797,8 +9890,14 @@
       <c r="G113" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H113" s="2">
+        <v>3</v>
+      </c>
+      <c r="I113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>285</v>
       </c>
@@ -7818,10 +9917,16 @@
         <v>3</v>
       </c>
       <c r="G114" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>3</v>
+      </c>
+      <c r="I114" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>286</v>
       </c>
@@ -7832,12 +9937,18 @@
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>3</v>
+      </c>
+      <c r="I115" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
@@ -7846,10 +9957,16 @@
         <v>4</v>
       </c>
       <c r="G116" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>3</v>
+      </c>
+      <c r="I116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>287</v>
       </c>
@@ -7860,10 +9977,16 @@
         <v>3</v>
       </c>
       <c r="G117" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H117" s="2">
+        <v>3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>288</v>
       </c>
@@ -7880,10 +10003,16 @@
         <v>1</v>
       </c>
       <c r="G118" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>3</v>
+      </c>
+      <c r="I118" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>289</v>
       </c>
@@ -7900,10 +10029,16 @@
         <v>2</v>
       </c>
       <c r="G119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H119" s="2">
+        <v>3</v>
+      </c>
+      <c r="I119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>290</v>
       </c>
@@ -7914,10 +10049,16 @@
         <v>4</v>
       </c>
       <c r="G120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H120" s="2">
+        <v>4</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>291</v>
       </c>
@@ -7927,8 +10068,14 @@
       <c r="G121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H121" s="2">
+        <v>4</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>292</v>
       </c>
@@ -7938,8 +10085,14 @@
       <c r="G122" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H122" s="2">
+        <v>4</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>293</v>
       </c>
@@ -7947,10 +10100,16 @@
         <v>4</v>
       </c>
       <c r="G123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H123" s="2">
+        <v>4</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>294</v>
       </c>
@@ -7964,10 +10123,16 @@
         <v>0</v>
       </c>
       <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>2</v>
+      </c>
+      <c r="I124" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>295</v>
       </c>
@@ -7984,10 +10149,16 @@
         <v>4</v>
       </c>
       <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I125" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>296</v>
       </c>
@@ -8001,10 +10172,16 @@
         <v>0</v>
       </c>
       <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>2</v>
+      </c>
+      <c r="I126" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>297</v>
       </c>
@@ -8026,8 +10203,14 @@
       <c r="G127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H127" s="2">
+        <v>4</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>298</v>
       </c>
@@ -8041,10 +10224,16 @@
         <v>0</v>
       </c>
       <c r="G128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H128" s="2">
+        <v>4</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>299</v>
       </c>
@@ -8064,10 +10253,16 @@
         <v>4</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H129" s="2">
+        <v>4</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>300</v>
       </c>
@@ -8078,10 +10273,16 @@
         <v>4</v>
       </c>
       <c r="G130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H130" s="2">
+        <v>3</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>301</v>
       </c>
@@ -8098,10 +10299,16 @@
         <v>4</v>
       </c>
       <c r="G131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="H131" s="2">
+        <v>3</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>302</v>
       </c>
@@ -8118,12 +10325,18 @@
         <v>2</v>
       </c>
       <c r="G132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H132" s="2">
+        <v>3</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B133" s="2">
         <v>-1</v>
@@ -8132,10 +10345,16 @@
         <v>4</v>
       </c>
       <c r="G133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>303</v>
       </c>
@@ -8152,10 +10371,16 @@
         <v>2</v>
       </c>
       <c r="G134" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>3</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>304</v>
       </c>
@@ -8172,10 +10397,16 @@
         <v>3</v>
       </c>
       <c r="G135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H135" s="2">
+        <v>2</v>
+      </c>
+      <c r="I135" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>305</v>
       </c>
@@ -8186,10 +10417,16 @@
         <v>0</v>
       </c>
       <c r="G136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H136" s="2">
+        <v>2</v>
+      </c>
+      <c r="I136" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>306</v>
       </c>
@@ -8206,10 +10443,16 @@
         <v>3</v>
       </c>
       <c r="G137" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H137" s="2">
+        <v>2</v>
+      </c>
+      <c r="I137" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>307</v>
       </c>
@@ -8226,10 +10469,16 @@
         <v>4</v>
       </c>
       <c r="G138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H138" s="2">
+        <v>2</v>
+      </c>
+      <c r="I138" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>308</v>
       </c>
@@ -8243,10 +10492,16 @@
         <v>3</v>
       </c>
       <c r="G139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H139" s="2">
+        <v>2</v>
+      </c>
+      <c r="I139" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>309</v>
       </c>
@@ -8263,10 +10518,16 @@
         <v>3</v>
       </c>
       <c r="G140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H140" s="2">
+        <v>2</v>
+      </c>
+      <c r="I140" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>310</v>
       </c>
@@ -8283,10 +10544,16 @@
         <v>2</v>
       </c>
       <c r="G141" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H141" s="2">
+        <v>3</v>
+      </c>
+      <c r="I141" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>311</v>
       </c>
@@ -8300,10 +10567,16 @@
         <v>2</v>
       </c>
       <c r="G142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H142" s="2">
+        <v>2</v>
+      </c>
+      <c r="I142" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>312</v>
       </c>
@@ -8314,10 +10587,16 @@
         <v>0</v>
       </c>
       <c r="G143" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>2</v>
+      </c>
+      <c r="I143" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>313</v>
       </c>
@@ -8328,10 +10607,16 @@
         <v>4</v>
       </c>
       <c r="G144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H144" s="2">
+        <v>2</v>
+      </c>
+      <c r="I144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>314</v>
       </c>
@@ -8339,10 +10624,16 @@
         <v>-1</v>
       </c>
       <c r="G145" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H145" s="2">
+        <v>2</v>
+      </c>
+      <c r="I145" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>315</v>
       </c>
@@ -8353,10 +10644,16 @@
         <v>1</v>
       </c>
       <c r="G146" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H146" s="2">
+        <v>2</v>
+      </c>
+      <c r="I146" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>316</v>
       </c>
@@ -8373,10 +10670,16 @@
         <v>2</v>
       </c>
       <c r="G147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H147" s="2">
+        <v>3</v>
+      </c>
+      <c r="I147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>317</v>
       </c>
@@ -8393,10 +10696,16 @@
         <v>4</v>
       </c>
       <c r="G148" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H148" s="2">
+        <v>3</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>318</v>
       </c>
@@ -8413,10 +10722,16 @@
         <v>2</v>
       </c>
       <c r="G149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H149" s="2">
+        <v>4</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>319</v>
       </c>
@@ -8430,10 +10745,16 @@
         <v>1</v>
       </c>
       <c r="G150" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H150" s="2">
+        <v>2</v>
+      </c>
+      <c r="I150" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>320</v>
       </c>
@@ -8450,10 +10771,16 @@
         <v>3</v>
       </c>
       <c r="G151" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H151" s="2">
+        <v>3</v>
+      </c>
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>321</v>
       </c>
@@ -8461,10 +10788,16 @@
         <v>-1</v>
       </c>
       <c r="G152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>322</v>
       </c>
@@ -8472,10 +10805,16 @@
         <v>-1</v>
       </c>
       <c r="G153" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H153" s="2">
+        <v>4</v>
+      </c>
+      <c r="I153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>323</v>
       </c>
@@ -8483,10 +10822,16 @@
         <v>-1</v>
       </c>
       <c r="G154" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H154" s="2">
+        <v>3</v>
+      </c>
+      <c r="I154" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>324</v>
       </c>
@@ -8494,10 +10839,16 @@
         <v>-1</v>
       </c>
       <c r="G155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H155" s="2">
+        <v>3</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>80</v>
       </c>
@@ -8505,10 +10856,16 @@
         <v>-1</v>
       </c>
       <c r="G156" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H156" s="2">
+        <v>3</v>
+      </c>
+      <c r="I156" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>325</v>
       </c>
@@ -8516,10 +10873,16 @@
         <v>-1</v>
       </c>
       <c r="G157" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H157" s="2">
+        <v>3</v>
+      </c>
+      <c r="I157" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>326</v>
       </c>
@@ -8527,10 +10890,16 @@
         <v>-1</v>
       </c>
       <c r="G158" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H158" s="2">
+        <v>2</v>
+      </c>
+      <c r="I158" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>327</v>
       </c>
@@ -8538,10 +10907,16 @@
         <v>-1</v>
       </c>
       <c r="G159" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H159" s="2">
+        <v>2</v>
+      </c>
+      <c r="I159" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>328</v>
       </c>
@@ -8549,10 +10924,16 @@
         <v>-1</v>
       </c>
       <c r="G160" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H160" s="2">
+        <v>2</v>
+      </c>
+      <c r="I160" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>329</v>
       </c>
@@ -8569,10 +10950,16 @@
         <v>3</v>
       </c>
       <c r="G161" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H161" s="2">
+        <v>2</v>
+      </c>
+      <c r="I161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>330</v>
       </c>
@@ -8589,10 +10976,16 @@
         <v>3</v>
       </c>
       <c r="G162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>331</v>
       </c>
@@ -8606,10 +10999,16 @@
         <v>1</v>
       </c>
       <c r="G163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H163" s="2">
+        <v>2</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>332</v>
       </c>
@@ -8626,10 +11025,16 @@
         <v>0</v>
       </c>
       <c r="G164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H164" s="2">
+        <v>3</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>333</v>
       </c>
@@ -8646,10 +11051,16 @@
         <v>0</v>
       </c>
       <c r="G165" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H165" s="2">
+        <v>3</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>334</v>
       </c>
@@ -8666,10 +11077,16 @@
         <v>0</v>
       </c>
       <c r="G166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H166" s="2">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>335</v>
       </c>
@@ -8680,10 +11097,16 @@
         <v>1</v>
       </c>
       <c r="G167" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>336</v>
       </c>
@@ -8694,10 +11117,16 @@
         <v>0</v>
       </c>
       <c r="G168" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H168" s="2">
+        <v>2</v>
+      </c>
+      <c r="I168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>337</v>
       </c>
@@ -8705,10 +11134,16 @@
         <v>-1</v>
       </c>
       <c r="G169" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H169" s="2">
+        <v>3</v>
+      </c>
+      <c r="I169" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>338</v>
       </c>
@@ -8716,10 +11151,16 @@
         <v>-1</v>
       </c>
       <c r="G170" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>339</v>
       </c>
@@ -8727,10 +11168,16 @@
         <v>-1</v>
       </c>
       <c r="G171" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H171" s="2">
+        <v>3</v>
+      </c>
+      <c r="I171" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>340</v>
       </c>
@@ -8738,10 +11185,16 @@
         <v>-1</v>
       </c>
       <c r="G172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H172" s="2">
+        <v>4</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>341</v>
       </c>
@@ -8749,10 +11202,16 @@
         <v>-1</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+        <v>-1</v>
+      </c>
+      <c r="H173" s="2">
+        <v>3</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B174" s="2" t="s">
         <v>84</v>
       </c>
@@ -8772,8 +11231,16 @@
         <f t="array" ref="F174">(SUM(IF((F$2:F$131&lt;&gt;"") * ($B$2:$B$131 = F$2:F$131), 1, 0)) + SUM(IF((F$132:F$173&lt;&gt;"") * ($B$132:$B$173 = -1), 1, 0))) / COUNTA(F$2:F$173)</f>
         <v>0.87037037037037035</v>
       </c>
-      <c r="G174" s="2" cm="1">
-        <f t="array" ref="G174">(SUM(IF((G$2:G$131&lt;&gt;"") * ($B$2:$B$131 = G$2:G$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+      <c r="G174" s="2">
+        <f t="array" ref="G174">(SUM(IF((G$2:G$131&lt;&gt;"") * ($B$2:$B$131 = G$2:G$131), 1, 0)) + SUM(IF((G$132:G$173&lt;&gt;"") * ($B$132:$B$173 = -1), 1, 0))) / COUNTA(G$2:G$173)</f>
+        <v>0.60465116279069764</v>
+      </c>
+      <c r="H174" s="2">
+        <f t="array" ref="H174">(SUM(IF((H$2:H$131&lt;&gt;"") * ($B$2:$B$131 = H$2:H$131), 1, 0)) + SUM(IF((H$132:H$173&lt;&gt;"") * ($B$132:$B$173 = -1), 1, 0))) / COUNTA(H$2:H$173)</f>
+        <v>0.95348837209302328</v>
+      </c>
+      <c r="I174" s="2" cm="1">
+        <f t="array" ref="I174">(SUM(IF((I$2:I$131&lt;&gt;"") * ($B$2:$B$131 = I$2:I$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
         <v>0.87209302325581395</v>
       </c>
     </row>
